--- a/document/【ファイルサーバ課題】PG一覧.xlsx
+++ b/document/【ファイルサーバ課題】PG一覧.xlsx
@@ -5,37 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\ファイルサーバー課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Documents\GitHub\spring-project\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2550A09A-B378-4913-98B6-FFF1C42659CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81370F0E-722C-4365-BD11-0AD2EBAE16BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{7A6A5EC5-19C9-4325-803F-97EC1E6911BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{7A6A5EC5-19C9-4325-803F-97EC1E6911BA}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
     <sheet name="PG一覧" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>ファイルサーバ課題</t>
     <rPh sb="7" eb="9">
@@ -379,6 +370,171 @@
     <t>エンティティクラスのFile.javaをFileData.javaに変更</t>
     <rPh sb="34" eb="36">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン管理</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DbUsersDeteails.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBから取得したユーザー情報を紐づける</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginMapper.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時のSQLメソッドを宣言</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebSecurityConfig.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティクラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DbUsersDeteailsService.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン処理に関する条件を定義</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値をもとにDBからユーザー情報を取得</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginController.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインのリクエストを制御</t>
+    <rPh sb="11" eb="13">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮田</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PG一覧</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１.機能にログイン管理という分類を新たに追加
+２.機能のログイン管理にログイン管理に関するクラスを新たに追加
+３.UserController.javaの処理内容からログインを削除してLoginController.javaに設定
+４.備考にセキュリティークラスを新たに追加</t>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,7 +543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +577,22 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -532,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,6 +738,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -573,9 +757,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,6 +765,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,12 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,23 +1108,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E3BA21-A698-4380-9620-178E028BF4AA}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -960,7 +1141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -978,7 +1159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
@@ -996,17 +1177,25 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1016,7 +1205,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1026,7 +1215,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1036,7 +1225,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1046,7 +1235,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1056,7 +1245,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1066,7 +1255,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <f>ROW(A10)</f>
         <v>10</v>
@@ -1076,7 +1265,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1086,7 +1275,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1096,7 +1285,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1106,7 +1295,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1116,7 +1305,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1126,7 +1315,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1136,7 +1325,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1146,7 +1335,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1165,108 +1354,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A12897-9ED0-4A50-A1EE-DFB39379EF9B}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="8" width="9.125" style="9"/>
+    <col min="4" max="5" width="13.58203125" style="9" customWidth="1"/>
+    <col min="6" max="8" width="9.08203125" style="9"/>
     <col min="9" max="9" width="9.5" style="9" customWidth="1"/>
-    <col min="10" max="12" width="9.125" style="9"/>
+    <col min="10" max="12" width="9.08203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="15" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="15"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="25" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="16">
+      <c r="J2" s="21"/>
+      <c r="K2" s="19">
         <v>44179</v>
       </c>
-      <c r="L2" s="15"/>
+      <c r="L2" s="18"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="24" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="15"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L3" s="18"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="25" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="16">
-        <v>44181</v>
-      </c>
-      <c r="L4" s="15"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="19">
+        <v>44182</v>
+      </c>
+      <c r="L4" s="18"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -1277,33 +1467,33 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8">
-        <f t="shared" ref="A7:A21" si="0">ROW(A7)-6</f>
+        <f t="shared" ref="A7:A26" si="0">ROW(A7)-6</f>
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1326,16 +1516,16 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="15" t="str">
         <f t="shared" ref="B8:B15" si="1">B7</f>
         <v>ユーザ管理</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
@@ -1352,21 +1542,21 @@
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="1:15" ht="40.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="40.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="15" t="str">
         <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="13"/>
@@ -1378,21 +1568,21 @@
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="1:15" ht="38.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="38.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="B10" s="15" t="str">
         <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="13"/>
@@ -1404,16 +1594,16 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="str">
+      <c r="B11" s="15" t="str">
         <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="13" t="s">
         <v>23</v>
       </c>
@@ -1430,16 +1620,16 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="15" t="str">
         <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
@@ -1456,16 +1646,16 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="11" t="str">
+      <c r="B13" s="15" t="str">
         <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="13" t="s">
         <v>26</v>
       </c>
@@ -1482,16 +1672,16 @@
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="11" t="str">
+      <c r="B14" s="15" t="str">
         <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="13" t="s">
         <v>27</v>
       </c>
@@ -1508,16 +1698,16 @@
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="15" t="str">
         <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="13" t="s">
         <v>44</v>
       </c>
@@ -1534,7 +1724,7 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1559,16 +1749,16 @@
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="str">
+      <c r="B17" s="15" t="str">
         <f>B16</f>
         <v>ファイル管理</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="13" t="s">
         <v>36</v>
       </c>
@@ -1585,21 +1775,21 @@
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="str">
+      <c r="B18" s="15" t="str">
         <f t="shared" ref="B18:B20" si="2">B17</f>
         <v>ファイル管理</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="13"/>
@@ -1611,21 +1801,21 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="56.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="11" t="str">
+      <c r="B19" s="15" t="str">
         <f t="shared" si="2"/>
         <v>ファイル管理</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="13" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="17" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="13"/>
@@ -1637,16 +1827,16 @@
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="str">
+      <c r="B20" s="15" t="str">
         <f t="shared" si="2"/>
         <v>ファイル管理</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
@@ -1663,16 +1853,16 @@
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="str">
+      <c r="B21" s="15" t="str">
         <f t="shared" ref="B21" si="3">B20</f>
         <v>ファイル管理</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="13" t="s">
         <v>46</v>
       </c>
@@ -1689,8 +1879,137 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="12" t="str">
+        <f>B22</f>
+        <v>ログイン管理</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="12" t="str">
+        <f>B23</f>
+        <v>ログイン管理</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="12" t="str">
+        <f>B24</f>
+        <v>ログイン管理</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="12" t="str">
+        <f>B25</f>
+        <v>ログイン管理</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="94">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="B9:C9"/>
@@ -1701,6 +2020,11 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B14:C14"/>
@@ -1730,17 +2054,12 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:L9"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="F16:I16"/>
@@ -1765,9 +2084,29 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:L25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/【ファイルサーバ課題】PG一覧.xlsx
+++ b/document/【ファイルサーバ課題】PG一覧.xlsx
@@ -5,28 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oreor\Documents\GitHub\spring-project\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12106e115a071dc4/デスクトップ/Git_backUp/1228/push_01/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81370F0E-722C-4365-BD11-0AD2EBAE16BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{81370F0E-722C-4365-BD11-0AD2EBAE16BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41C93CD7-9D83-42A3-A547-22364BA381FE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{7A6A5EC5-19C9-4325-803F-97EC1E6911BA}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{7A6A5EC5-19C9-4325-803F-97EC1E6911BA}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
     <sheet name="PG一覧" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>ファイルサーバ課題</t>
     <rPh sb="7" eb="9">
@@ -534,6 +543,27 @@
       <t>アラ</t>
     </rPh>
     <rPh sb="135" eb="137">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserForm.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録フォーム用</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserForm.javaを追加</t>
+    <rPh sb="14" eb="16">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -741,10 +771,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1108,23 +1138,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E3BA21-A698-4380-9620-178E028BF4AA}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.08203125" customWidth="1"/>
+    <col min="3" max="3" width="11.35546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.35546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.0703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
@@ -1141,7 +1171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A3" s="2">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -1159,7 +1189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
@@ -1177,7 +1207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="73.75" x14ac:dyDescent="0.65">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1195,17 +1225,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44193</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1215,7 +1253,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1225,7 +1263,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1235,7 +1273,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1245,7 +1283,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1255,7 +1293,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A12" s="2">
         <f>ROW(A10)</f>
         <v>10</v>
@@ -1265,7 +1303,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1275,7 +1313,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1285,7 +1323,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1295,7 +1333,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1305,7 +1343,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1315,7 +1353,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1325,7 +1363,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1335,7 +1373,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1354,21 +1392,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A12897-9ED0-4A50-A1EE-DFB39379EF9B}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="4" max="5" width="13.58203125" style="9" customWidth="1"/>
-    <col min="6" max="8" width="9.08203125" style="9"/>
+    <col min="4" max="5" width="13.5703125" style="9" customWidth="1"/>
+    <col min="6" max="8" width="9.0703125" style="9"/>
     <col min="9" max="9" width="9.5" style="9" customWidth="1"/>
-    <col min="10" max="12" width="9.08203125" style="9"/>
+    <col min="10" max="12" width="9.0703125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1429,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1412,7 +1450,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1473,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A4" s="25"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -1456,7 +1494,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.65">
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -1467,7 +1505,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1491,110 +1529,110 @@
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A7" s="8">
-        <f t="shared" ref="A7:A26" si="0">ROW(A7)-6</f>
+        <f t="shared" ref="A7:A27" si="0">ROW(A7)-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B8" s="15" t="str">
-        <f t="shared" ref="B8:B15" si="1">B7</f>
+        <f>B7</f>
         <v>ユーザ管理</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="15" t="str">
+        <f>B7</f>
+        <v>ユーザ管理</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" ht="40.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="15" t="str">
-        <f t="shared" si="1"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" ht="40.4" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="15" t="str">
+        <f t="shared" ref="B10:B16" si="1">B9</f>
         <v>ユーザ管理</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="17" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" ht="38.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>ユーザ管理</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" ht="38.15" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1604,23 +1642,23 @@
         <v>ユーザ管理</v>
       </c>
       <c r="C11" s="16"/>
-      <c r="D11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1630,23 +1668,23 @@
         <v>ユーザ管理</v>
       </c>
       <c r="C12" s="16"/>
-      <c r="D12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1656,23 +1694,23 @@
         <v>ユーザ管理</v>
       </c>
       <c r="C13" s="16"/>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13" t="s">
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1682,23 +1720,23 @@
         <v>ユーザ管理</v>
       </c>
       <c r="C14" s="16"/>
-      <c r="D14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13" t="s">
+      <c r="D14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.65">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1708,126 +1746,126 @@
         <v>ユーザ管理</v>
       </c>
       <c r="C15" s="16"/>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>ユーザ管理</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8">
-        <f t="shared" si="0"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="15" t="str">
-        <f>B16</f>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="15" t="str">
+        <f>B17</f>
         <v>ファイル管理</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="13" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-    </row>
-    <row r="18" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="15" t="str">
-        <f t="shared" ref="B18:B20" si="2">B17</f>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="15" t="str">
+        <f t="shared" ref="B19:B21" si="2">B18</f>
         <v>ファイル管理</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="13" t="s">
+      <c r="C19" s="16"/>
+      <c r="D19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="17" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="1:12" ht="56.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>ファイル管理</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A20" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1837,183 +1875,209 @@
         <v>ファイル管理</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>ファイル管理</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="15" t="str">
-        <f t="shared" ref="B21" si="3">B20</f>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="15" t="str">
+        <f t="shared" ref="B22" si="3">B21</f>
         <v>ファイル管理</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="13" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="14" t="s">
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13" t="s">
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B23" s="12" t="str">
-        <f>B22</f>
-        <v>ログイン管理</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A24" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="12" t="str">
+      <c r="B24" s="13" t="str">
         <f>B23</f>
         <v>ログイン管理</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="13"/>
+      <c r="D24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A25" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B25" s="12" t="str">
+      <c r="B25" s="13" t="str">
         <f>B24</f>
         <v>ログイン管理</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="13"/>
+      <c r="D25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.65">
       <c r="A26" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="13" t="str">
         <f>B25</f>
         <v>ログイン管理</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.65">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="13" t="str">
+        <f>B26</f>
+        <v>ログイン管理</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13" t="s">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
+  <mergeCells count="98">
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B7:C7"/>
@@ -2021,89 +2085,93 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="J7:L7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:L8"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:H4"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:L18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:L19"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:L20"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:L13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:L15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
